--- a/docs/饥荒数据.xlsx
+++ b/docs/饥荒数据.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="129">
   <si>
     <t>物品</t>
   </si>
@@ -294,6 +294,82 @@
   </si>
   <si>
     <t>初期不划算，要有腐肉喂养才行</t>
+  </si>
+  <si>
+    <t>石墙</t>
+  </si>
+  <si>
+    <t>石头*6</t>
+  </si>
+  <si>
+    <t>木质大门</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木头*8
+草*3
+</t>
+  </si>
+  <si>
+    <t>服装</t>
+  </si>
+  <si>
+    <t>花环</t>
+  </si>
+  <si>
+    <t>花瓣*12</t>
+  </si>
+  <si>
+    <t>兔儿罩</t>
+  </si>
+  <si>
+    <t>兔子*2</t>
+  </si>
+  <si>
+    <t>冬帽</t>
+  </si>
+  <si>
+    <t>牛毛*4
+= 剃刀*1（刮2至3次）</t>
+  </si>
+  <si>
+    <t>蜘蛛丝*4</t>
+  </si>
+  <si>
+    <t>蜘蛛丝*4
+树枝*2
+燧石*2</t>
+  </si>
+  <si>
+    <t>食物</t>
+  </si>
+  <si>
+    <t>烹饪锅</t>
+  </si>
+  <si>
+    <t>石砖*3
+=石头*9</t>
+  </si>
+  <si>
+    <t>树枝*6</t>
+  </si>
+  <si>
+    <t>木炭*6（烧了树后再砍）</t>
+  </si>
+  <si>
+    <t>石头*9
+树枝*6
+木炭*6</t>
+  </si>
+  <si>
+    <t>冰箱</t>
+  </si>
+  <si>
+    <t>齿轮*1（打发条骑士/教主）</t>
+  </si>
+  <si>
+    <t>石头*3
+金块*2
+齿轮*1</t>
   </si>
   <si>
     <t>蜜蜂*4
@@ -311,82 +387,6 @@
 蜂窝*1</t>
   </si>
   <si>
-    <t>石墙</t>
-  </si>
-  <si>
-    <t>石头*6</t>
-  </si>
-  <si>
-    <t>木质大门</t>
-  </si>
-  <si>
-    <t xml:space="preserve">木头*8
-草*3
-</t>
-  </si>
-  <si>
-    <t>服装</t>
-  </si>
-  <si>
-    <t>花环</t>
-  </si>
-  <si>
-    <t>花瓣*12</t>
-  </si>
-  <si>
-    <t>兔儿罩</t>
-  </si>
-  <si>
-    <t>兔子*2</t>
-  </si>
-  <si>
-    <t>冬帽</t>
-  </si>
-  <si>
-    <t>牛毛*4
-= 剃刀*1（刮2至3次）</t>
-  </si>
-  <si>
-    <t>蜘蛛丝*4</t>
-  </si>
-  <si>
-    <t>蜘蛛丝*4
-树枝*2
-燧石*2</t>
-  </si>
-  <si>
-    <t>食物</t>
-  </si>
-  <si>
-    <t>烹饪锅</t>
-  </si>
-  <si>
-    <t>石砖*3
-=石头*9</t>
-  </si>
-  <si>
-    <t>树枝*6</t>
-  </si>
-  <si>
-    <t>木炭*6（烧了树后再砍）</t>
-  </si>
-  <si>
-    <t>石头*9
-树枝*6
-木炭*6</t>
-  </si>
-  <si>
-    <t>冰箱</t>
-  </si>
-  <si>
-    <t>齿轮*1（打发条骑士/教主）</t>
-  </si>
-  <si>
-    <t>石头*3
-金块*2
-齿轮*1</t>
-  </si>
-  <si>
     <t>战斗</t>
   </si>
   <si>
@@ -443,6 +443,12 @@
     <t>木头*2
 草*3
 犬牙*1</t>
+  </si>
+  <si>
+    <t>蜜蜂地雷</t>
+  </si>
+  <si>
+    <t>蜜蜂*4</t>
   </si>
   <si>
     <t>说明：
@@ -452,7 +458,17 @@
 4 二本科技可以放入背包，自带可以。
 5 猪皮放地上会被其它生物吃掉。
 6 腐烂的鸟蛋可以当燃料，可以长久保存。
-7 捕捉蝴蝶，种植就会变成花。</t>
+7 捕捉蝴蝶，种植就会变成花。
+8 捕获鼹鼠：寻找鼹鼠洞穴，将石头，石方或者石类材料扔在附近。将锤子拿在手上，等待黄昏来临。黄昏时鼹鼠出来，会被附近的石头吸引。玩家使用锤子就可以砸晕鼹鼠了。</t>
+  </si>
+  <si>
+    <t>实际体验后：
+1 把捕虫网抓住蝴蝶后，找一个地方集中种植成花后，会有更多的蝴蝶生成，这样不断的增殖花，可以当作精神值的来源，最好跟蜂窝弄在一起。
+2 靠边界建立基地，会有天然的屏障。
+3 遇到 boss ，先穿上一件木甲，不然很容易死亡。
+4 不要把设施弄的太过集中，一次不注意损失会比较大。
+5 碰到齿轮要么先拿到，要么一定要记住位置，制作冰箱很节省时间，不然一直要弄食物。
+6 风干的肉会额外增加精神值，尽量风干。</t>
   </si>
 </sst>
 </file>
@@ -460,10 +476,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -498,6 +514,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -505,9 +529,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -519,14 +551,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,29 +574,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -587,16 +597,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,22 +642,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -640,6 +649,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -650,19 +666,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,25 +792,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,133 +846,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,6 +857,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -878,22 +929,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -903,26 +939,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,10 +965,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -961,137 +977,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1133,9 +1149,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1456,12 +1469,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD56"/>
+  <dimension ref="A1:XFD60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomLeft" activeCell="A53" sqref="A53:G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -1832,125 +1845,125 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" ht="105" customHeight="1" spans="1:6">
+    <row r="29" ht="42" customHeight="1" spans="1:6">
       <c r="A29" s="4" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="F29" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" ht="53" customHeight="1" spans="1:6">
+      <c r="A30" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" ht="42" customHeight="1" spans="1:6">
-      <c r="A30" s="4" t="s">
+      <c r="C30" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="F30" s="9" t="s">
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:6">
+      <c r="A31" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="31" ht="53" customHeight="1" spans="1:6">
-      <c r="A31" s="4" t="s">
+      <c r="D31" s="8"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" ht="31" customHeight="1" spans="1:2">
+      <c r="A32" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="9" t="s">
+      <c r="B32" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:6">
-      <c r="A32" s="2" t="s">
+    <row r="33" ht="32" customHeight="1" spans="1:3">
+      <c r="A33" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" ht="31" customHeight="1" spans="1:2">
-      <c r="A33" s="4" t="s">
+      <c r="B33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="5" t="s">
+    </row>
+    <row r="34" ht="75" customHeight="1" spans="1:6">
+      <c r="A34" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="34" ht="32" customHeight="1" spans="1:3">
-      <c r="A34" s="4" t="s">
+      <c r="B34" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="35" ht="75" customHeight="1" spans="1:6">
-      <c r="A35" s="4" t="s">
+      <c r="F34" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="9" t="s">
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:6">
+      <c r="A35" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="8"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" ht="75" customHeight="1" spans="1:6">
+      <c r="A36" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="B36" s="9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="1:6">
-      <c r="A36" s="2" t="s">
+      <c r="C36" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" ht="75" customHeight="1" spans="1:6">
+      <c r="D36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" ht="70" customHeight="1" spans="1:6">
       <c r="A37" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="5" t="s">
         <v>103</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="38" ht="70" customHeight="1" spans="1:6">
+    <row r="38" ht="105" customHeight="1" spans="1:6">
       <c r="A38" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>107</v>
@@ -2039,50 +2052,130 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" customFormat="1" ht="39" customHeight="1" spans="1:6">
-      <c r="A45" s="4"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="11"/>
-      <c r="F45" s="12"/>
-    </row>
-    <row r="46" s="3" customFormat="1" ht="79" customHeight="1" spans="4:6">
-      <c r="D46" s="5"/>
-      <c r="F46" s="13"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="9" t="s">
+    <row r="45" customFormat="1" ht="77" customHeight="1" spans="1:6">
+      <c r="A45" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="B45" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" customFormat="1" ht="39" customHeight="1" spans="1:6">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="11"/>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" s="3" customFormat="1" ht="79" customHeight="1" spans="4:6">
+      <c r="D47" s="5"/>
+      <c r="F47" s="13"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="5"/>
+      <c r="A48" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="E48" s="5"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" ht="13.5" spans="1:7">
+    <row r="49" spans="1:7">
       <c r="A49" s="5"/>
       <c r="E49" s="5"/>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" ht="118" customHeight="1" spans="1:7">
+    <row r="50" ht="13.5" spans="1:7">
       <c r="A50" s="5"/>
       <c r="E50" s="5"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="14"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="14"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="14"/>
+    <row r="51" ht="185" customHeight="1" spans="1:7">
+      <c r="A51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="A2:XFD2"/>
     <mergeCell ref="A6:XFD6"/>
@@ -2090,11 +2183,12 @@
     <mergeCell ref="A14:XFD14"/>
     <mergeCell ref="A22:XFD22"/>
     <mergeCell ref="A27:XFD27"/>
-    <mergeCell ref="A32:XFD32"/>
-    <mergeCell ref="A36:XFD36"/>
+    <mergeCell ref="A31:XFD31"/>
+    <mergeCell ref="A35:XFD35"/>
     <mergeCell ref="A39:XFD39"/>
-    <mergeCell ref="A46:XFD46"/>
-    <mergeCell ref="A47:G50"/>
+    <mergeCell ref="A47:XFD47"/>
+    <mergeCell ref="A48:G51"/>
+    <mergeCell ref="A53:G60"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
